--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AD3045-CBCD-48ED-994D-26D0BEC37CAF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30046508-DB8B-4DB9-84C7-1C4B7CC4508C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -871,7 +871,7 @@
   <dimension ref="B1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1088,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="11">
-        <v>1.26</v>
+        <v>8.26</v>
       </c>
       <c r="G11" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30046508-DB8B-4DB9-84C7-1C4B7CC4508C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5D819E-E37B-4235-9BE4-069691062C9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="11">
-        <v>1.83</v>
+        <v>4.83</v>
       </c>
       <c r="G15" s="20">
         <v>0.4</v>
@@ -1284,7 +1284,7 @@
         <v>111</v>
       </c>
       <c r="F19" s="11">
-        <v>1.82</v>
+        <v>4.82</v>
       </c>
       <c r="G19" s="20">
         <v>0.4</v>
@@ -1426,7 +1426,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="11">
-        <v>2.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="G25" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB5D819E-E37B-4235-9BE4-069691062C9D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C0FE3-58D7-4B16-B356-B863D451DBB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="11">
-        <v>3.16</v>
+        <v>13.16</v>
       </c>
       <c r="G9" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C0FE3-58D7-4B16-B356-B863D451DBB9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C92E31-4002-44C4-9B75-730AA36FE6D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1188,7 +1188,7 @@
         <v>111</v>
       </c>
       <c r="F15" s="11">
-        <v>4.83</v>
+        <v>21.33</v>
       </c>
       <c r="G15" s="20">
         <v>0.4</v>
@@ -1212,7 +1212,7 @@
         <v>111</v>
       </c>
       <c r="F16" s="11">
-        <v>1.58</v>
+        <v>15.58</v>
       </c>
       <c r="G16" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renato\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0C92E31-4002-44C4-9B75-730AA36FE6D8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A8AED-A9D5-4633-AEF5-AC528744ADFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,7 +1284,7 @@
         <v>111</v>
       </c>
       <c r="F19" s="11">
-        <v>4.82</v>
+        <v>5.82</v>
       </c>
       <c r="G19" s="20">
         <v>0.4</v>
@@ -1426,7 +1426,7 @@
         <v>111</v>
       </c>
       <c r="F25" s="11">
-        <v>8.6999999999999993</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="G25" s="20">
         <v>0.4</v>

--- a/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
+++ b/Plantillas/Entrega 4/Plantilla de Casos de Uso .xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irdev\OneDrive\Documentos\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iro19\Documents\GitHub\Repositorio-Desarrollo-de-Software\Plantillas\Entrega 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928A8AED-A9D5-4633-AEF5-AC528744ADFD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76D789F-91F3-4619-A212-A45B9549DB8C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="26475" windowHeight="14025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -870,8 +870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>111</v>
       </c>
       <c r="F9" s="11">
-        <v>13.16</v>
+        <v>14.16</v>
       </c>
       <c r="G9" s="20">
         <v>0.4</v>
@@ -1088,7 +1088,7 @@
         <v>111</v>
       </c>
       <c r="F11" s="11">
-        <v>8.26</v>
+        <v>9.26</v>
       </c>
       <c r="G11" s="20">
         <v>0.4</v>
